--- a/biology/Histoire de la zoologie et de la botanique/Jan_Dzierżon/Jan_Dzierżon.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jan_Dzierżon/Jan_Dzierżon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jan_Dzier%C5%BCon</t>
+          <t>Jan_Dzierżon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jan Dzierżon (en allemand Johann Dzierzon) (16 janvier 1811 à Lowkowitz – 26 octobre 1906 ibid) est un intellectuel germano-polonais et prêtre catholique mais est plus connu aujourd'hui en tant que naturaliste et apiculteur.
 Il découvre la reproduction asexuée des abeilles (parthénogenèse) et fonde plusieurs associations et sociétés d'apiculture en Silésie et reçoit de nombreux hommages pour son apport scientifique, tant de son vivant qu'après sa mort. Par ses découvertes et ses innovations, Dzierżon est souvent considéré comme le père de l'apiculture moderne.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jan_Dzier%C5%BCon</t>
+          <t>Jan_Dzierżon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dzierżon est né dans une vieille famille polonaise de Lowkowitz (aujourd'hui Łowkowice) près de Kreuzburg (Kluczbork, en Silésie, à l'époque de la Prusse[1]. Il est le second des trois enfants de Simon et Marie, née Jantos. Le nom de son arrière-grand-père Jerzy Dzierżon (1717-1800) figurait déjà dans la plus ancienne chronique de Łowkowice[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dzierżon est né dans une vieille famille polonaise de Lowkowitz (aujourd'hui Łowkowice) près de Kreuzburg (Kluczbork, en Silésie, à l'époque de la Prusse. Il est le second des trois enfants de Simon et Marie, née Jantos. Le nom de son arrière-grand-père Jerzy Dzierżon (1717-1800) figurait déjà dans la plus ancienne chronique de Łowkowice.
 Jusqu'à l'âge de 10 ans, il est élève de l'école publique de Lowkowitz avant de faire une année à Byczyna.
 En 1822, il part à Breslau (Wrocław), où il va au lycée. Il en sort en 1830 comme major de sa promotion. Il commence alors des études de théologie à l'université de Breslau, tout en étudiant les mathématiques, l'astronomie et l'histoire.
 Diplômé de la faculté de la théologie catholique de l'université de Breslau, il est ordonné prêtre en 1834, et devient vicaire à Alt Schalkowitz (Stare Siołkowice) avant d'obtenir une cure en 1835, celle de la paroisse de Karlsmarkt (Karłowice), en Basse Silésie. Il mène simultanément des recherches sur la vie des abeilles et crée un cercle d'apiculture en Silésie, qui deviendra plus tard la Société d'apiculture.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jan_Dzier%C5%BCon</t>
+          <t>Jan_Dzierżon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,10 +564,12 @@
           <t>Œuvre scientifique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Jan Dzierżon émet dès 1835 (et la présente en 1845) la théorie selon laquelle le faux-bourdon (abeille mâle) se développerait à partir d'œufs non fécondés, et donc aurait une mère mais pas de père, alors que l'abeille femelle serait elle issue d'œufs fécondés. Il met par là même en évidence le phénomène de la parthénogenèse chez les abeilles. 
-Dzierżon révolutionne l'élevage des abeilles, publie son propre journal spécialisé sur ce thème et, en 1838, conçoit la première ruche à cadres mobiles, qui va permettre d'accéder aux alvéoles d'abeilles sans détruire la structure de la ruche. Il établit la distance correcte entre les cadres comme étant d'un pouce et demi du centre d'une barre supérieure au centre de la suivante.. Dans son rucher, il étudie la vie sociale des abeilles et construit plusieurs ruches expérimentales. En 1848, Dzierzon remplace dans son rucher les bandes de bois pour les barres supérieures mobiles par des cannelures de la taille 8 x 8 millimètres dans les parois latérales. Ses innovations gagnent rapidement des adeptes en Europe et Amérique du Nord. Sur la base des mesures mentionnées ci-dessus, en 1852, August von Berlepsch (1815-1877)[3] en Thuringe et Lorenzo Lorain Langstroth (1810-1895) aux États-Unis conçoivent leurs ruches à cadres amovibles. En 1854, il découvre le mécanisme de la sécrétion de la gelée royale et son rôle dans le développement des reines. Les innovations introduites par Dzierżon dans le métier d'apiculteur ont permis de son temps à 400 familles d'avoir leur propre rucher. Mais il participe également à l'innovation en agronomie, par exemple en introduisant dans son village la culture du lupin. Au total, il va écrire 26 ouvrages scientifiques, et produire plus de 800 articles, et beaucoup de ses travaux seront traduits dans d'autres langues européennes, dont on retiendra notamment „la nouvelle apiculture améliorée” et „Compléments pour la théorie et la pratique du nouvel apiculteur”.
+Dzierżon révolutionne l'élevage des abeilles, publie son propre journal spécialisé sur ce thème et, en 1838, conçoit la première ruche à cadres mobiles, qui va permettre d'accéder aux alvéoles d'abeilles sans détruire la structure de la ruche. Il établit la distance correcte entre les cadres comme étant d'un pouce et demi du centre d'une barre supérieure au centre de la suivante.. Dans son rucher, il étudie la vie sociale des abeilles et construit plusieurs ruches expérimentales. En 1848, Dzierzon remplace dans son rucher les bandes de bois pour les barres supérieures mobiles par des cannelures de la taille 8 x 8 millimètres dans les parois latérales. Ses innovations gagnent rapidement des adeptes en Europe et Amérique du Nord. Sur la base des mesures mentionnées ci-dessus, en 1852, August von Berlepsch (1815-1877) en Thuringe et Lorenzo Lorain Langstroth (1810-1895) aux États-Unis conçoivent leurs ruches à cadres amovibles. En 1854, il découvre le mécanisme de la sécrétion de la gelée royale et son rôle dans le développement des reines. Les innovations introduites par Dzierżon dans le métier d'apiculteur ont permis de son temps à 400 familles d'avoir leur propre rucher. Mais il participe également à l'innovation en agronomie, par exemple en introduisant dans son village la culture du lupin. Au total, il va écrire 26 ouvrages scientifiques, et produire plus de 800 articles, et beaucoup de ses travaux seront traduits dans d'autres langues européennes, dont on retiendra notamment „la nouvelle apiculture améliorée” et „Compléments pour la théorie et la pratique du nouvel apiculteur”.
 </t>
         </is>
       </c>
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jan_Dzier%C5%BCon</t>
+          <t>Jan_Dzierżon</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,10 +598,12 @@
           <t>Héritage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dzierżon est considéré comme le père de l'apiologie et de l'apiculture moderne : nos ruches modernes sont dérivées de ses conceptions. 
-Il a pourtant été contesté, sa théorie de la parthénogenèse se heurtant d'emblée à une opposition farouche d'essence quasi religieuse qui ne se démentira pas jusqu'au milieu du XXe siècle[4]. C'était en effet un dogme répandu, jusque dans  les milieux scientifiques, que tout être animé se devait d'avoir une mère... et un père.
+Il a pourtant été contesté, sa théorie de la parthénogenèse se heurtant d'emblée à une opposition farouche d'essence quasi religieuse qui ne se démentira pas jusqu'au milieu du XXe siècle. C'était en effet un dogme répandu, jusque dans  les milieux scientifiques, que tout être animé se devait d'avoir une mère... et un père.
 Cependant, Dzierżon a été couvert d'honneurs de son vivant. Ses activités lui valent d'obtenir en 1872 un doctorat honoris causa de l'Université de Munich, et d'être distingué par de nombreux pays européens. Il devient entre autres membre d'honneur des Sociétés d'agriculture de Cracovie et Lvov, de l'académie allemande des sciences Leopoldina et, en 1904, de la Société silésienne pour la culture de la patrie (« Schlesische Gesellschaft für vaterländische Kultur »). Il est décoré de différents ordres : l'ordre autrichien de François-Joseph, l'ordre bavarois du mérite Saint-Michel, l'ordre de Louis (décerné par le Land de Hesse), l'ordre russe de Sainte-Anne, l'ordre suédois de Vasa, l'ordre prussien de la couronne (4e classe) à son quatre-vingt-dixième anniversaire, etc.  Dzierżon a reçu un diplôme honorifique à Graz, remis par l'archiduc Jean-Baptiste d'Autriche. En 1903, il est présenté à l'empereur François-Joseph Ier d'Autriche.  
 Cela ne s'arrête pas à sa mort :  Sa ville natale de Lowkowitz est renommée Bienendorf (« village des abeilles ») du temps de l'Allemagne hitlérienne et a conservé ce nom jusqu'en 1945. À la suite de la Seconde Guerre mondiale, la région a été transférée à la Pologne et la ville a été renommée Łowkowice.
 En 1946, pour l'honorer, la ville silésienne de Rychbach (Reichenbach à l'époque allemande) a été rebaptisée Dzierżoniów. 
@@ -600,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jan_Dzier%C5%BCon</t>
+          <t>Jan_Dzierżon</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -618,7 +636,9 @@
           <t>Sélection d'ouvrages de Dzierżon</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Sztuka zrobienia złota, nawet z zielska Tygodnik Polski Poświęcony Włościanom, (L'art de faire de l'or, même avec de la mauvaise herbe, hebdo polonais consacré au monde rural)  Pszczyna 15 XI 1845.
 Nowe udoskonalone pszczelnictwo księdza plebana Dzierżona w Katwicach na Śląsku (La nouvelle apiculture perfectionnée du curé Dzierżon, de Katwice en Silésie). Leszno 1851 i 1859 (przekład: Lompa)
